--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -37,6 +37,14 @@
   </si>
   <si>
     <t>test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你和对方都已经在队伍里面,请先退出队伍再来组队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已被踢出队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -386,10 +394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -435,6 +443,84 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,6 +45,22 @@
   </si>
   <si>
     <t>你已被踢出队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>钻石不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包已满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -397,7 +413,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -469,6 +485,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
@@ -477,6 +496,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
       <c r="C7" t="s">
         <v>5</v>
       </c>
@@ -485,6 +507,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
       <c r="C8" t="s">
         <v>5</v>
       </c>
@@ -492,6 +517,9 @@
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能CD时间未到!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -44,10 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你已被踢出队伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>金币不足</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -61,6 +53,14 @@
   </si>
   <si>
     <t>购买成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已被{p1=队长}踢出队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{p1=大}技能CD时间未到!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -413,7 +413,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -445,7 +445,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -453,10 +453,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -464,10 +464,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
@@ -475,10 +475,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -486,10 +486,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
@@ -497,10 +497,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -508,10 +508,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -519,10 +519,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
@@ -530,7 +530,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
@@ -538,7 +538,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
@@ -546,7 +546,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -32,10 +32,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>test</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>你和对方都已经在队伍里面,请先退出队伍再来组队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -56,11 +52,103 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>{p1=大}技能CD时间未到!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>你已被{p1=队长}踢出队伍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{p1=大}技能CD时间未到!</t>
+    <t>等级不足{p1=1}级,无法进入下一个世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]正在[color=#00FE3F]大杀特杀[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#5C01BA]主宰比赛[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#FB057E]杀人如麻[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F97D04]无人能挡[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#7F7F00]变态杀戮[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F179F1]妖怪般的杀戮[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/firstblood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Double_Kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Killing_Spree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Dominating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/MegaKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Unstoppable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/WhickedSick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/monster_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/GodLike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/HolyShit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showlong</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -410,15 +498,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="48.375" customWidth="1"/>
+    <col min="2" max="2" width="87" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
@@ -426,7 +514,7 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -436,121 +524,317 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
+        <v>20</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>showlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -501,7 +509,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -538,6 +546,9 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -552,6 +563,9 @@
       <c r="B3" t="s">
         <v>9</v>
       </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
       <c r="D3">
         <v>1</v>
       </c>
@@ -566,6 +580,9 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="C4" t="s">
+        <v>34</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -580,6 +597,9 @@
       <c r="B5" t="s">
         <v>10</v>
       </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
       <c r="D5">
         <v>1</v>
       </c>
@@ -594,6 +614,9 @@
       <c r="B6" t="s">
         <v>5</v>
       </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -608,6 +631,9 @@
       <c r="B7" t="s">
         <v>6</v>
       </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -622,6 +648,9 @@
       <c r="B8" t="s">
         <v>7</v>
       </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -636,6 +665,9 @@
       <c r="B9" t="s">
         <v>8</v>
       </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -649,6 +681,9 @@
       </c>
       <c r="B10" t="s">
         <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
       </c>
       <c r="D10">
         <v>1</v>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -157,6 +157,14 @@
   </si>
   <si>
     <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经为最高等级了!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -506,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
@@ -867,6 +875,40 @@
         <v>33</v>
       </c>
     </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,119 +52,127 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>你已被{p1=队长}踢出队伍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级不足{p1=1}级,无法进入下一个世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]正在[color=#00FE3F]大杀特杀[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#5C01BA]主宰比赛[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#FB057E]杀人如麻[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F97D04]无人能挡[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#7F7F00]变态杀戮[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F179F1]妖怪般的杀戮[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/firstblood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Double_Kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Killing_Spree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Dominating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/MegaKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Unstoppable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/WhickedSick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/monster_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/GodLike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/HolyShit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经为最高等级了!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖的道具数量超过上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>{p1=大}技能CD时间未到!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>你已被{p1=队长}踢出队伍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等级不足{p1=1}级,无法进入下一个世界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]正在[color=#00FE3F]大杀特杀[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#5C01BA]主宰比赛[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#FB057E]杀人如麻[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F97D04]无人能挡[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#7F7F00]变态杀戮[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F179F1]妖怪般的杀戮[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/firstblood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Double_Kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Killing_Spree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Dominating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/MegaKill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Unstoppable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/WhickedSick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/monster_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/GodLike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/HolyShit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showlong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/other/warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/other/warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经为最高等级了!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成成功</t>
+    <t>该商品已下架,无法购买该商品!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -514,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -541,10 +549,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -555,13 +563,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -569,16 +577,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -589,13 +597,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
@@ -603,16 +611,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.15">
@@ -623,13 +631,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -640,13 +648,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
@@ -657,13 +665,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
@@ -674,13 +682,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.15">
@@ -688,16 +696,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
@@ -708,7 +716,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -716,13 +724,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.15">
@@ -730,13 +738,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.15">
@@ -744,16 +752,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.15">
@@ -761,16 +769,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
@@ -778,16 +786,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.15">
@@ -795,16 +803,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
@@ -812,16 +820,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
@@ -829,16 +837,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -846,16 +854,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -863,16 +871,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -880,16 +888,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
@@ -897,16 +905,84 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>10000</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25">
+        <v>10001</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
         <v>37</v>
       </c>
-      <c r="C23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23">
-        <v>1</v>
-      </c>
-      <c r="E23" t="s">
-        <v>32</v>
+      <c r="C26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" t="s">
+        <v>33</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -13,8 +13,44 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+1上 2中 3下</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -44,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>背包已满</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>购买成功</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,6 +205,18 @@
   </si>
   <si>
     <t>该商品已下架,无法购买该商品!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包空位不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具[color=#FB057E]{p1=护腕}[/color][color=#FFFFFF]{p2=lv.1}[/color]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -180,7 +224,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -194,6 +238,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -521,11 +580,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -538,7 +597,7 @@
     <col min="7" max="7" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -549,13 +608,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -563,33 +625,39 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -597,33 +665,39 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -631,16 +705,19 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -648,67 +725,79 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -716,208 +805,247 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>10000</v>
       </c>
@@ -925,16 +1053,19 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>10001</v>
       </c>
@@ -942,52 +1073,82 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" t="s">
         <v>33</v>
       </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27" t="s">
-        <v>31</v>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,6 +217,34 @@
   </si>
   <si>
     <t>获得道具[color=#FB057E]{p1=护腕}[/color][color=#FFFFFF]{p2=lv.1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已有公会，无法加入!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请已经发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>权限不够</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方已经有公会了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -581,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1145,6 +1173,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>30</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>47</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>32</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,14 @@
   </si>
   <si>
     <t>对方已经有公会了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到该物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价低于当前价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -609,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1313,6 +1321,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -240,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>权限不够</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>对方已经有公会了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -253,6 +249,10 @@
   </si>
   <si>
     <t>报价低于当前价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有该权限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -620,7 +620,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1286,7 +1286,7 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C34" t="s">
         <v>32</v>
@@ -1306,7 +1306,7 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C35" t="s">
         <v>32</v>
@@ -1326,7 +1326,7 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C36" t="s">
         <v>32</v>
@@ -1346,7 +1346,7 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C37" t="s">
         <v>32</v>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +253,10 @@
   </si>
   <si>
     <t>没有该权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不对或者公会等级不够,无法进入该地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -617,10 +621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1361,6 +1365,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -257,6 +257,10 @@
   </si>
   <si>
     <t>时间不对或者公会等级不够,无法进入该地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此地图不支持更换装备,请回城更换!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +625,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1385,6 +1389,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>52</v>
+      </c>
+      <c r="C39" t="s">
+        <v>32</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>30</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,6 +261,10 @@
   </si>
   <si>
     <t>此地图不支持更换装备,请回城更换!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不对或者等级不够,无法进入该地图</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -625,10 +629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1409,6 +1413,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" t="s">
+        <v>32</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,163 +108,171 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F179F1]妖怪般的杀戮[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/firstblood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Double_Kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Killing_Spree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Dominating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/MegaKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Unstoppable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/WhickedSick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/monster_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/GodLike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/HolyShit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经为最高等级了!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖的道具数量超过上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{p1=大}技能CD时间未到!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该商品已下架,无法购买该商品!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包空位不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具[color=#FB057E]{p1=护腕}[/color][color=#FFFFFF]{p2=lv.1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已有公会，无法加入!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请已经发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方已经有公会了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到该物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价低于当前价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有该权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不对或者公会等级不够,无法进入该地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此地图不支持更换装备,请回城更换!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不对或者等级不够,无法进入该地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[color=#3473F7]{p1=1}[/color]已经[color=#7F7F00]变态杀戮[/color]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#F179F1]妖怪般的杀戮[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/firstblood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Double_Kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Killing_Spree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Dominating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/MegaKill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Unstoppable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/WhickedSick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/monster_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/GodLike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/HolyShit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showlong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/other/warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/other/warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经为最高等级了!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖的道具数量超过上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{p1=大}技能CD时间未到!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该商品已下架,无法购买该商品!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包空位不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得道具[color=#FB057E]{p1=护腕}[/color][color=#FFFFFF]{p2=lv.1}[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已有公会，无法加入!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请已经发出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方已经有公会了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未找到该物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价低于当前价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有该权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间不对或者公会等级不够,无法进入该地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此地图不支持更换装备,请回城更换!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间不对或者等级不够,无法进入该地图</t>
+    <t>我在[color=#3473F7]{p1=1}({p2=1},{p3=1})[/color]发现了[color=#F179F1]{p4=1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败!聊天信息发送太频繁!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -629,10 +637,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:F42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -656,13 +664,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
         <v>28</v>
       </c>
-      <c r="E1" t="s">
-        <v>29</v>
-      </c>
       <c r="F1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -673,13 +681,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -690,16 +698,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -713,13 +721,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -733,13 +741,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -753,13 +761,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -773,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -790,16 +798,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -813,13 +821,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -833,13 +841,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -853,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -864,13 +872,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -881,13 +889,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -901,13 +909,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -921,13 +929,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -941,13 +949,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -961,13 +969,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -978,16 +986,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -998,16 +1006,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1018,16 +1026,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1038,16 +1046,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1058,16 +1066,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1078,16 +1086,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1101,13 +1109,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1121,13 +1129,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1138,16 +1146,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1158,16 +1166,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1178,16 +1186,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1198,16 +1206,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1218,16 +1226,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1238,16 +1246,16 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1258,16 +1266,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1278,16 +1286,16 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1298,16 +1306,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1318,16 +1326,16 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1338,16 +1346,16 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C36" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1358,16 +1366,16 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1378,16 +1386,16 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1398,16 +1406,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1418,18 +1426,58 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>38</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>39</v>
+      </c>
+      <c r="B42" t="s">
+        <v>55</v>
+      </c>
+      <c r="C42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>29</v>
+      </c>
+      <c r="F42">
         <v>1</v>
       </c>
     </row>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>发送失败!聊天信息发送太频繁!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会战已经结束或者还未开始!无法查看</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -637,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1481,6 +1485,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>40</v>
+      </c>
+      <c r="B43" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" t="s">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>29</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -19,6 +19,30 @@
     <author>作者</author>
   </authors>
   <commentList>
+    <comment ref="D1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//1 弹出文字 2 跑马灯</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
@@ -50,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,175 +132,187 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/firstblood</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Double_Kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Killing_Spree</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Dominating</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/MegaKill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/Unstoppable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/WhickedSick</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/monster_kill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/GodLike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/kill/HolyShit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>showlong</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sound/other/warning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已经为最高等级了!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合成成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>售卖的道具数量超过上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{p1=大}技能CD时间未到!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该商品已下架,无法购买该商品!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背包空位不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pos</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得道具[color=#FB057E]{p1=护腕}[/color][color=#FFFFFF]{p2=lv.1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非法字符</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你已有公会，无法加入!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>申请已经发出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对方已经有公会了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到该物品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报价低于当前价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有该权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不对或者公会等级不够,无法进入该地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此地图不支持更换装备,请回城更换!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间不对或者等级不够,无法进入该地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经[color=#7F7F00]变态杀戮[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在[color=#3473F7]{p1=1}({p2=1},{p3=1})[/color]发现了[color=#F179F1]{p4=1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送失败!聊天信息发送太频繁!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公会战已经结束或者还未开始!无法查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[color=#3473F7]{p1=1}[/color]已经[color=#F179F1]妖怪般的杀戮[/color]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]如同神一般[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#DB1213]超越神的杀戮,拜托谁去杀了他吧!![/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/firstblood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Double_Kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Killing_Spree</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Dominating</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/MegaKill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/Unstoppable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/WhickedSick</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/monster_kill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/GodLike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sound/kill/HolyShit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Type</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>showlong</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>sound/other/warning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>sound/other/warning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>已经为最高等级了!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合成成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>售卖的道具数量超过上限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{p1=大}技能CD时间未到!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该商品已下架,无法购买该商品!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>背包空位不足</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Pos</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得道具[color=#FB057E]{p1=护腕}[/color][color=#FFFFFF]{p2=lv.1}[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非法字符</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>名字重复</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你已有公会，无法加入!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会不存在</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>申请已经发出</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对方已经有公会了</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未找到该物品</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>报价低于当前价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有该权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间不对或者公会等级不够,无法进入该地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此地图不支持更换装备,请回城更换!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间不对或者等级不够,无法进入该地图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[color=#3473F7]{p1=1}[/color]已经[color=#7F7F00]变态杀戮[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我在[color=#3473F7]{p1=1}({p2=1},{p3=1})[/color]发现了[color=#F179F1]{p4=1}[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发送失败!聊天信息发送太频繁!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公会战已经结束或者还未开始!无法查看</t>
+    <t>[color=#3473F7]{p1=1}[/color]携带着宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜[color=#3473F7]{p1=1}[/color]通过夺宝奇兵获得道具[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -284,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +348,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -641,15 +690,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F43"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="87" customWidth="1"/>
+    <col min="2" max="2" width="110.5" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
@@ -668,13 +717,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
       <c r="F1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -685,13 +734,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -702,16 +751,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -725,13 +774,13 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -745,13 +794,13 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -765,13 +814,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -785,13 +834,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -802,16 +851,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -825,13 +874,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -845,13 +894,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -865,7 +914,7 @@
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -876,13 +925,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12">
         <v>1</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -893,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -913,13 +962,13 @@
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>1</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -933,13 +982,13 @@
         <v>11</v>
       </c>
       <c r="C15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15">
         <v>1</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -953,13 +1002,13 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -973,13 +1022,13 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -990,16 +1039,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1010,16 +1059,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="C19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D19">
         <v>1</v>
       </c>
       <c r="E19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F19">
         <v>1</v>
@@ -1030,16 +1079,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D20">
         <v>1</v>
       </c>
       <c r="E20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1050,16 +1099,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1070,16 +1119,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22">
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1090,16 +1139,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1113,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24">
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1133,13 +1182,13 @@
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D25">
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1150,16 +1199,16 @@
         <v>23</v>
       </c>
       <c r="B26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D26">
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1170,16 +1219,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27">
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1190,16 +1239,16 @@
         <v>25</v>
       </c>
       <c r="B28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28">
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F28">
         <v>3</v>
@@ -1210,16 +1259,16 @@
         <v>26</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1230,16 +1279,16 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1250,16 +1299,16 @@
         <v>28</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1270,16 +1319,16 @@
         <v>29</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1290,16 +1339,16 @@
         <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1310,16 +1359,16 @@
         <v>31</v>
       </c>
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1330,16 +1379,16 @@
         <v>32</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1350,16 +1399,16 @@
         <v>33</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1370,16 +1419,16 @@
         <v>34</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37">
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1390,16 +1439,16 @@
         <v>35</v>
       </c>
       <c r="B38" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -1410,16 +1459,16 @@
         <v>36</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D39">
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1430,16 +1479,16 @@
         <v>37</v>
       </c>
       <c r="B40" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D40">
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1450,16 +1499,16 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1470,16 +1519,16 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1490,18 +1539,58 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
+        <v>28</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>41</v>
+      </c>
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
         <v>29</v>
       </c>
-      <c r="F43">
+      <c r="F44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>42</v>
+      </c>
+      <c r="B45" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="s">
+        <v>29</v>
+      </c>
+      <c r="F45">
         <v>1</v>
       </c>
     </row>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -27,6 +27,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,6 +37,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -288,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>我在[color=#3473F7]{p1=1}({p2=1},{p3=1})[/color]发现了[color=#F179F1]{p4=1}[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>发送失败!聊天信息发送太频繁!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,6 +311,10 @@
   </si>
   <si>
     <t>恭喜[color=#3473F7]{p1=1}[/color]通过夺宝奇兵获得道具[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我在{p1=1}({p2=1},{p3=1})发现了{p4=1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +322,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,19 +350,6 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -693,7 +682,7 @@
   <dimension ref="A1:F45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1059,7 +1048,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
         <v>23</v>
@@ -1342,7 +1331,7 @@
         <v>44</v>
       </c>
       <c r="C33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -1499,7 +1488,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -1519,7 +1508,7 @@
         <v>39</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" t="s">
         <v>30</v>
@@ -1539,7 +1528,7 @@
         <v>40</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
@@ -1559,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C44" t="s">
         <v>30</v>
@@ -1579,7 +1568,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -315,6 +315,22 @@
   </si>
   <si>
     <t>我在{p1=1}({p2=1},{p3=1})发现了{p4=1}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此地图不支持切换攻击模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日进入副本次数已经用完,请明日再来!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级不够!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此道具只有分红的成员可以参与拍卖!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,6 +1599,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>43</v>
+      </c>
+      <c r="B46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>44</v>
+      </c>
+      <c r="B47" t="s">
+        <v>61</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>62</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>46</v>
+      </c>
+      <c r="B49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C49" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,6 +331,14 @@
   </si>
   <si>
     <t>此道具只有分红的成员可以参与拍卖!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>匹配副本成功!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜[color=#3473F7]{p1=1}[/color]在公会排名战中勇夺第一名!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F49"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1679,6 +1687,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>64</v>
+      </c>
+      <c r="C50" t="s">
+        <v>30</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>29</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>48</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51">
+        <v>2</v>
+      </c>
+      <c r="E51" t="s">
+        <v>29</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -339,6 +339,10 @@
   </si>
   <si>
     <t>恭喜[color=#3473F7]{p1=1}[/color]在公会排名战中勇夺第一名!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>您所在的地图不能进行匹配!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1727,6 +1731,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>49</v>
+      </c>
+      <c r="B52" t="s">
+        <v>66</v>
+      </c>
+      <c r="C52" t="s">
+        <v>30</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -343,6 +343,14 @@
   </si>
   <si>
     <t>您所在的地图不能进行匹配!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你和你的队友获得[color=#3473F7]{p1=1}[/color],请去交易所的拍卖行获取它吧!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你和你的公会队友获得[color=#3473F7]{p1=1}[/color],请去公会的拍卖行获取它吧!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -707,10 +715,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1751,6 +1759,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>29</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,6 +351,22 @@
   </si>
   <si>
     <t>恭喜你和你的公会队友获得[color=#3473F7]{p1=1}[/color],请去公会的拍卖行获取它吧!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该英雄等级不足!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激活失败!未在背包里找到激活所需的道具!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未找到该天赋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该天赋已激活!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -715,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F54"/>
+  <dimension ref="A1:F58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1799,6 +1815,86 @@
         <v>1</v>
       </c>
     </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>69</v>
+      </c>
+      <c r="C55" t="s">
+        <v>30</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>29</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C56" t="s">
+        <v>30</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>29</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57" t="s">
+        <v>71</v>
+      </c>
+      <c r="C57" t="s">
+        <v>30</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>29</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>72</v>
+      </c>
+      <c r="C58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>29</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="74">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,10 @@
   </si>
   <si>
     <t>该天赋已激活!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库已满!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -731,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1895,6 +1899,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>73</v>
+      </c>
+      <c r="C59" t="s">
+        <v>30</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>29</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -310,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜[color=#3473F7]{p1=1}[/color]通过夺宝奇兵获得道具[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>我在{p1=1}({p2=1},{p3=1})发现了{p4=1}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,10 +334,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>恭喜[color=#3473F7]{p1=1}[/color]在公会排名战中勇夺第一名!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>您所在的地图不能进行匹配!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -371,6 +363,14 @@
   </si>
   <si>
     <t>仓库已满!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜[color=#3473F7]{p1=1}[/color]通过夺宝奇兵获得装备[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜[color=#3473F7]{p1=1}[/color]在公会排名战中勇夺第一名!获得装备[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -737,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1544,7 +1544,7 @@
         <v>38</v>
       </c>
       <c r="B41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -1624,7 +1624,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
@@ -1644,7 +1644,7 @@
         <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" t="s">
         <v>30</v>
@@ -1664,7 +1664,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
@@ -1684,7 +1684,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -1704,7 +1704,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
@@ -1724,7 +1724,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -1744,7 +1744,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -1764,7 +1764,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -1784,7 +1784,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -1804,7 +1804,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -1824,7 +1824,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
@@ -1844,7 +1844,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -1864,7 +1864,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -1884,7 +1884,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -1904,7 +1904,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -371,6 +371,10 @@
   </si>
   <si>
     <t>恭喜[color=#3473F7]{p1=1}[/color]在公会排名战中勇夺第一名!获得装备[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[color=#3473F7]{p1=1}[/color]已经开启,请各位英雄前往!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -735,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1919,6 +1923,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60" t="s">
+        <v>74</v>
+      </c>
+      <c r="C60" t="s">
+        <v>30</v>
+      </c>
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -375,6 +375,10 @@
   </si>
   <si>
     <t>[color=#3473F7]{p1=1}[/color]已经开启,请各位英雄前往!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此装备不能穿戴,或者英雄未达到穿戴等级需求！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,10 +743,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1943,6 +1947,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C61" t="s">
+        <v>30</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,6 +379,10 @@
   </si>
   <si>
     <t>此装备不能穿戴,或者英雄未达到穿戴等级需求！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该道具不能出售!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -743,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1967,6 +1971,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62" t="s">
+        <v>76</v>
+      </c>
+      <c r="C62" t="s">
+        <v>30</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>29</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -374,15 +374,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>此装备不能穿戴,或者英雄未达到穿戴等级需求！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该道具不能出售!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>[color=#3473F7]{p1=1}[/color]已经开启,请各位英雄前往!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>此装备不能穿戴,或者英雄未达到穿戴等级需求！</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>该道具不能出售!</t>
+    <t>[color=#3473F7]{p1=1}[/color]秒后将刷新第[color=#3473F7]{p2=1}[/color]波敌人[color=#3473F7]({p2=1}/{p3=1})[/color]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜你,已经没有更多的敌人了!!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -747,10 +755,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1936,7 +1944,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -1956,7 +1964,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -1976,7 +1984,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -1988,6 +1996,46 @@
         <v>29</v>
       </c>
       <c r="F62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" t="s">
+        <v>30</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>29</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>29</v>
+      </c>
+      <c r="F64">
         <v>1</v>
       </c>
     </row>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,6 +391,26 @@
   </si>
   <si>
     <t>恭喜你,已经没有更多的敌人了!!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该道具已经被应用!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入炼化装备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请放入炼化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分道具不存在</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>该装备不是炼化材料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+      <selection activeCell="B73" sqref="B73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2039,6 +2059,106 @@
         <v>1</v>
       </c>
     </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>29</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>29</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>29</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>29</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -411,6 +411,10 @@
   </si>
   <si>
     <t>该装备不是炼化材料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此地图boss已出现</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -775,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F69"/>
+  <dimension ref="A1:F70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B73" sqref="B73"/>
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2159,6 +2163,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" t="s">
+        <v>30</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>29</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,10 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>今日进入副本次数已经用完,请明日再来!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>等级不够!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -415,6 +411,14 @@
   </si>
   <si>
     <t>此地图boss已出现</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>今日进入副本点数不够!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{p1=20}秒内部能重复切换攻击模式!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -779,10 +783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1668,7 +1672,7 @@
         <v>42</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C45" t="s">
         <v>30</v>
@@ -1708,7 +1712,7 @@
         <v>44</v>
       </c>
       <c r="B47" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>30</v>
@@ -1728,7 +1732,7 @@
         <v>45</v>
       </c>
       <c r="B48" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C48" t="s">
         <v>30</v>
@@ -1748,7 +1752,7 @@
         <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C49" t="s">
         <v>30</v>
@@ -1768,7 +1772,7 @@
         <v>47</v>
       </c>
       <c r="B50" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C50" t="s">
         <v>30</v>
@@ -1788,7 +1792,7 @@
         <v>48</v>
       </c>
       <c r="B51" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C51" t="s">
         <v>30</v>
@@ -1808,7 +1812,7 @@
         <v>49</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52" t="s">
         <v>30</v>
@@ -1828,7 +1832,7 @@
         <v>50</v>
       </c>
       <c r="B53" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -1848,7 +1852,7 @@
         <v>51</v>
       </c>
       <c r="B54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
         <v>30</v>
@@ -1868,7 +1872,7 @@
         <v>52</v>
       </c>
       <c r="B55" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C55" t="s">
         <v>30</v>
@@ -1888,7 +1892,7 @@
         <v>53</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>30</v>
@@ -1908,7 +1912,7 @@
         <v>54</v>
       </c>
       <c r="B57" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C57" t="s">
         <v>30</v>
@@ -1928,7 +1932,7 @@
         <v>55</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C58" t="s">
         <v>30</v>
@@ -1948,7 +1952,7 @@
         <v>56</v>
       </c>
       <c r="B59" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>30</v>
@@ -1968,7 +1972,7 @@
         <v>57</v>
       </c>
       <c r="B60" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
         <v>30</v>
@@ -1988,7 +1992,7 @@
         <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C61" t="s">
         <v>30</v>
@@ -2008,7 +2012,7 @@
         <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C62" t="s">
         <v>30</v>
@@ -2028,7 +2032,7 @@
         <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C63" t="s">
         <v>30</v>
@@ -2048,7 +2052,7 @@
         <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C64" t="s">
         <v>30</v>
@@ -2068,7 +2072,7 @@
         <v>62</v>
       </c>
       <c r="B65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C65" t="s">
         <v>30</v>
@@ -2088,7 +2092,7 @@
         <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C66" t="s">
         <v>30</v>
@@ -2108,7 +2112,7 @@
         <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" t="s">
         <v>30</v>
@@ -2128,7 +2132,7 @@
         <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C68" t="s">
         <v>30</v>
@@ -2148,7 +2152,7 @@
         <v>66</v>
       </c>
       <c r="B69" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C69" t="s">
         <v>30</v>
@@ -2168,7 +2172,7 @@
         <v>67</v>
       </c>
       <c r="B70" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C70" t="s">
         <v>30</v>
@@ -2180,6 +2184,26 @@
         <v>29</v>
       </c>
       <c r="F70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" t="s">
+        <v>30</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>29</v>
+      </c>
+      <c r="F71">
         <v>1</v>
       </c>
     </row>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -419,6 +419,14 @@
   </si>
   <si>
     <t>{p1=20}秒内部能重复切换攻击模式!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数点不足！</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -783,10 +791,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2207,6 +2215,46 @@
         <v>1</v>
       </c>
     </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" t="s">
+        <v>30</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/noticewords.xlsx
+++ b/Excel/noticewords.xlsx
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="89">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -427,6 +427,10 @@
   </si>
   <si>
     <t>奥数点不足！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜[color=#3473F7]{p1=1}[/color]通过抽奖获得装备[color=#FB057E]{p2=护腕}[/color][color=#FFFFFF]{p3=lv.1}[/color]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -791,7 +795,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F74"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="B77" sqref="B77"/>
@@ -799,7 +803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="110.5" customWidth="1"/>
+    <col min="2" max="2" width="128.875" customWidth="1"/>
     <col min="3" max="3" width="39.125" customWidth="1"/>
     <col min="4" max="4" width="16.875" customWidth="1"/>
     <col min="5" max="5" width="17.375" customWidth="1"/>
@@ -2255,6 +2259,26 @@
         <v>1</v>
       </c>
     </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74" t="s">
+        <v>88</v>
+      </c>
+      <c r="C74" t="s">
+        <v>30</v>
+      </c>
+      <c r="D74">
+        <v>2</v>
+      </c>
+      <c r="E74" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
